--- a/src/test/TestData/SkillMater.xlsx
+++ b/src/test/TestData/SkillMater.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush.wadhwa\IdeaProjects\RMT\src\test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4421944-2FA3-4E27-BC13-627DE563AB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4778C80-A0CA-4290-A6ED-C4C815D60291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="251">
   <si>
     <t>Agile methodology is an iterative and incremental approach to software development and project management that prioritizes flexibility, collaboration, and customer satisfaction.</t>
   </si>
@@ -1384,13 +1384,16 @@
     <t>GOA</t>
   </si>
   <si>
-    <t>OSK002-N</t>
-  </si>
-  <si>
-    <t>Valuations</t>
-  </si>
-  <si>
-    <t>GrantThronthan</t>
+    <t>MACKBOOK AIR</t>
+  </si>
+  <si>
+    <t>DUE DELLIGENCE</t>
+  </si>
+  <si>
+    <t>MACKBOOK PRO</t>
+  </si>
+  <si>
+    <t>iPhone</t>
   </si>
 </sst>
 </file>
@@ -1831,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,7 +1949,7 @@
         <v>244</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
@@ -1965,13 +1968,13 @@
         <v>207</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>223</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>224</v>
@@ -2000,30 +2003,42 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+        <v>244</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="J3" s="5" t="s">
         <v>224</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>224</v>
       </c>
       <c r="N3" s="5" t="s">
@@ -2033,7 +2048,7 @@
         <v>224</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>224</v>
@@ -2049,6 +2064,130 @@
       </c>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
+    </row>
+    <row r="4" spans="1:24" ht="216" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="1:24" ht="216" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/TestData/SkillMater.xlsx
+++ b/src/test/TestData/SkillMater.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush.wadhwa\IdeaProjects\RMT\src\test\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush.Wadhwa\IdeaProjects\Automation\RMT\src\test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4778C80-A0CA-4290-A6ED-C4C815D60291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A890185-7367-41AC-9B01-05EAE169ACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillMaster" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="249">
   <si>
     <t>Agile methodology is an iterative and incremental approach to software development and project management that prioritizes flexibility, collaboration, and customer satisfaction.</t>
   </si>
@@ -1264,9 +1264,6 @@
 * Advises on strategic data architecture decisions and develops solutions for advanced analytics, machine learning, or complex reporting, pushing the boundaries of Snowflake's capabilities.</t>
   </si>
   <si>
-    <t>Agile metodology</t>
-  </si>
-  <si>
     <t>skill Name</t>
   </si>
   <si>
@@ -1372,28 +1369,25 @@
     <t>D2_T_GR00009</t>
   </si>
   <si>
-    <t>Newly Created</t>
-  </si>
-  <si>
     <t>OSK001-N</t>
   </si>
   <si>
     <t xml:space="preserve">FileName </t>
   </si>
   <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Agile Methodology</t>
+  </si>
+  <si>
     <t>GOA</t>
   </si>
   <si>
-    <t>MACKBOOK AIR</t>
-  </si>
-  <si>
-    <t>DUE DELLIGENCE</t>
-  </si>
-  <si>
-    <t>MACKBOOK PRO</t>
-  </si>
-  <si>
-    <t>iPhone</t>
+    <t>Newly Crea+C2+A+A2:P2</t>
+  </si>
+  <si>
+    <t>PW_2032_21</t>
   </si>
 </sst>
 </file>
@@ -1499,12 +1493,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1834,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,332 +1853,148 @@
     <col min="19" max="19" width="15.77734375" customWidth="1"/>
     <col min="20" max="20" width="17.6640625" customWidth="1"/>
     <col min="21" max="21" width="30.88671875" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="22" max="22" width="21.77734375" customWidth="1"/>
     <col min="23" max="23" width="20.6640625" customWidth="1"/>
     <col min="24" max="24" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="216" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="216" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="J2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-    </row>
-    <row r="3" spans="1:24" ht="216" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-    </row>
-    <row r="4" spans="1:24" ht="216" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-    </row>
-    <row r="5" spans="1:24" ht="216" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2352,20 +2159,20 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2804,7 +2611,7 @@
       <c r="A28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C28" s="1"/>
@@ -2907,7 +2714,7 @@
       <c r="F32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2951,7 +2758,7 @@
       <c r="F34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3041,7 +2848,7 @@
       <c r="F38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3061,66 +2868,66 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/TestData/SkillMater.xlsx
+++ b/src/test/TestData/SkillMater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush.Wadhwa\IdeaProjects\Automation\RMT\src\test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A890185-7367-41AC-9B01-05EAE169ACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ADAD94-816B-406F-95E7-2340E354FDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1387,7 +1387,7 @@
     <t>Newly Crea+C2+A+A2:P2</t>
   </si>
   <si>
-    <t>PW_2032_21</t>
+    <t>PW_2032_36</t>
   </si>
 </sst>
 </file>

--- a/src/test/TestData/SkillMater.xlsx
+++ b/src/test/TestData/SkillMater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush.Wadhwa\IdeaProjects\Automation\RMT\src\test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ADAD94-816B-406F-95E7-2340E354FDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B7F49C-00E1-4310-A49E-0C344AD9A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1387,7 +1387,7 @@
     <t>Newly Crea+C2+A+A2:P2</t>
   </si>
   <si>
-    <t>PW_2032_36</t>
+    <t>PW_2032_38</t>
   </si>
 </sst>
 </file>

--- a/src/test/TestData/SkillMater.xlsx
+++ b/src/test/TestData/SkillMater.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush.Wadhwa\IdeaProjects\Automation\RMT\src\test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B7F49C-00E1-4310-A49E-0C344AD9A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755BD5F1-FD87-41CA-8958-F446352A621A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillMaster!$C$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillMaster!$C$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1384,10 +1384,10 @@
     <t>GOA</t>
   </si>
   <si>
-    <t>Newly Crea+C2+A+A2:P2</t>
-  </si>
-  <si>
-    <t>PW_2032_38</t>
+    <t>Newly Crea+C2+A+A2:P796</t>
+  </si>
+  <si>
+    <t>PW_2033_1003</t>
   </si>
 </sst>
 </file>

--- a/src/test/TestData/SkillMater.xlsx
+++ b/src/test/TestData/SkillMater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush.Wadhwa\IdeaProjects\Automation\RMT\src\test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725431D8-61D8-4917-8FE3-AF65551295D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362BE8CB-7D09-4836-9987-989E4F95C872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1931,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3516,7 +3516,7 @@
       <c r="B23" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>190</v>
       </c>
       <c r="D23" s="1" t="s">

--- a/src/test/TestData/SkillMater.xlsx
+++ b/src/test/TestData/SkillMater.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush.Wadhwa\IdeaProjects\Automation\RMT\src\test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A640C0-FD51-4BF3-ABFC-FC83F4B56057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFDF70-654C-49D0-A7B7-095603FB0888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillMaster" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillMaster!$A$1:$X$1</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>skill Name</t>
   </si>
@@ -116,85 +117,131 @@
     <t>Technical</t>
   </si>
   <si>
+    <t>ESG &amp; Risk Consulting</t>
+  </si>
+  <si>
+    <t>Forensic</t>
+  </si>
+  <si>
+    <t>Incident Response</t>
+  </si>
+  <si>
+    <t>Proficiency in executing incident responses to detect, contain, and remediate cybersecurity threats and breaches. This skill involves technical knowledge, strategic oversight, and the ability to implement procedures and governance frameworks effectively.</t>
+  </si>
+  <si>
+    <t>NSK0379</t>
+  </si>
+  <si>
+    <t>* Possesses basic knowledge of Operating systems _x000D_
+* Possesses basic knowledge of security tools and technologies._x000D_
+* Familiarity with networking fundamentals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Ability to analyze and apply technical skills to operating systems, networking, and security tools._x000D_
+* Awareness of incident response procedures and proper documentation/reporting standards._x000D_
+</t>
+  </si>
+  <si>
+    <t>* Extensive knowledge of threat detection and prevention techniques._x000D_
+* Ability to perform log correlation and analysis._x000D_
+* Capability to develop and implement Playbooks.</t>
+  </si>
+  <si>
+    <t>* Deep expertise in incident response strategy and governance frameworks._x000D_
+* Technical execution of complex incident response activities._x000D_
+* Strategic oversight to ensure compliance and organizational resilience.</t>
+  </si>
+  <si>
     <t>TRFC</t>
   </si>
   <si>
-    <t xml:space="preserve">AIF Taxation
-</t>
-  </si>
-  <si>
-    <t>Understanding the provisions relating to taxation of AIFs under the Income Tax Act, 1961, including, tax treatment across AIF categories (I, II, III), applicable tax rates, pass-through status for AIF Category I &amp; II and Fund level taxation for AIF category III, interpretation of judicial precedents impacting AIF taxation</t>
-  </si>
-  <si>
-    <t>*CA / LLB (expertise in direct taxation) (with 0-3 years of experience)
-*Basic understanding of fundamental AIF tax concepts and rules and identify the category of an AIF and its basic tax treatment
-*Understand the difference between capital gains and business income in AIF context
-*Know the basic tax compliances such as, computation of income and tax liability for AIFs, filing income tax returns and TDS returns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*CA / LLB (expertise in direct taxation) (with 3-6 years of experience)
-*Good understanding of AIF tax provisions, including applicable tax rates based on income type and investor profile
-*Applies relevant taxation principles and regulations to prepare accurate AIF tax returns
-*Explain the implications of pass-through taxation for Category I &amp; II AIFs
-*Understand fund-level taxation for Category III AIFs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA / LLB (expertise in direct taxation) (with 6 -12 years of experience)
-*Comprehensive knowledge of AIF taxation, advising on intricate issues like cross-border transactions, investments in debt instruments, listed/ unlisted instruments, derivative instruments, etc. 
-*Advise on structuring AIFs to optimize tax efficiency and compliance
-*Analyze tax implications of judicial rulings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*CA / LLB (expertise in direct taxation) (with over 12 years of experience)
-*Recognized as a trusted advisor in AIF taxation, sought after for complex legal and tax structuring.
-*Provides strategic AIF structuring advice, considering investor confidentiality, regulatory constraints, and judicial safeguards.
-*Interpret and apply complex judicial rulings to real-world AIF structures
-</t>
-  </si>
-  <si>
-    <t>BFSI</t>
-  </si>
-  <si>
-    <t>BFSI Tax</t>
-  </si>
-  <si>
-    <t>Global Tax Delivery - UK Taxation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understanding and application of UK tax laws and compliance requirements for individuals and corporates, including, applicable tax rates, basic tax residency rules and implications, recognize common tax reliefs etc.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*CA / ACCA / Graduate/ MBA (expertise in direct UK taxation) (with 0-3 years of experience)
-*Basic understanding of fundamental UK tax principles and regulations.
-*Identify key UK tax forms and deadlines.
-*Understand basic tax residency rules and implications.
-*Understands core UK compliance requirements, completes assigned tasks with supervision, adhering to deadlines.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*CA / ACCA / Graduate/ MBA (expertise in direct UK taxation) (with 3-6 years of experience)
-*Good understanding of fundamental UK tax principles and regulations
-*Independently manages routine UK compliance tasks, demonstrates accuracy and adherence to deadlines, *Ability to identify potential compliance risks and resolve/ seeks clarification when needed.
-</t>
-  </si>
-  <si>
-    <t>CA / ACCA / Graduate / MBA (expertise in direct UK taxation) (with 6 -12 years of experience)
-*Analyzes intricate UK tax issues and identifies optimal solutions, guides colleagues on complex calculations and compliance procedures. 
-*Identifies and mitigates UK compliance risks, streamlines compliance processes to enhance efficiency, contributes to developing and implementing new compliance procedures.
-*Handles complex compliance scenarios.</t>
-  </si>
-  <si>
-    <t>*CA / ACCA / Graduate /  MBA (expertise in direct UK taxation) (with over 12 years of experience)
-*Expertise in UK taxation and recognized as a subject matter authority.
-*Develops innovative strategies and resolves highly complex tax issues.
-*Develops and implements efficient processes for accurate and timely filings, provides guidance to team on complex tax computations.</t>
-  </si>
-  <si>
-    <t>SK0001</t>
-  </si>
-  <si>
-    <t>SK0002</t>
+    <t>Compliance &amp; Outsourcing</t>
+  </si>
+  <si>
+    <t>NSK0380</t>
+  </si>
+  <si>
+    <t>Fund Accounting</t>
+  </si>
+  <si>
+    <t>Handling fund accounting activities for private market funds, Hedge Funds and Mutual funds and various products in the domain - from onboarding and recording transactions to NAV delivery and MIS reporting - including but not limited to the following functions: _x000D_
+* Trade administration_x000D_
+* Various reconciliations _x000D_
+*  Transaction accounting  _x000D_
+* Pricing and valuation control_x000D_
+* NAV delivery and MIS reporting _x000D_
+Along with the above, we also handle project migrations involving transition of fund accounting of software or administrator, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* CA / MBA / ACCA / CMA qualified candidates (with 0-3 years of experience)_x000D_
+* Hands on experience in any of all of the end to end Fund accounting and NAV functions relating to _x000D_
+* Trade administration_x000D_
+* Various reconciliations _x000D_
+*  Transaction accounting  _x000D_
+* Pricing and valuation control_x000D_
+* NAV delivery and MIS reporting _x000D_
+_x000D_
+Basic and reasonable understanding of various trading instruments and asset classes that private Equities, hedge funds and mutual funds deal with. </t>
+  </si>
+  <si>
+    <t>* CA / MBA / ACCA / CMA qualified candidates (with 3-7 years of experience)_x000D_
+* Strong experience in any of all of the end to end Fund accounting and NAV functions relating to _x000D_
+* Trade administration_x000D_
+* Various reconciliations _x000D_
+*  Transaction accounting  _x000D_
+* Pricing and valuation control_x000D_
+* NAV delivery and MIS reporting _x000D_
+ _x000D_
+*Ability to review and deliver NAVs and handle other client deliverables independently._x000D_
+* Strong technical skillset in accounting and understadning of primary and secondary markets along with financial instruments. _x000D_
+* Strong experience in genrally used fund accounting softwares in the industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* CA / MBA / ACCA / CMA qualified candidates (with 7-12 years of experience)_x000D_
+* Strong experience in end to end fund accounting activities along with ability to directionaly guide the team with respect to these activities.  _x000D_
+* Strong technical skillset in accounting intricacies along with an understanding of reporting requirements_x000D_
+* Expertise in most of the widely used fund accounting softwares in the industry. </t>
+  </si>
+  <si>
+    <t>* CA / MBA / ACCA / CMA qualified candidates (with more than 12 years of experience)_x000D_
+* Extensive expertise in fund accounting with a strong and In depth knowledge and understanding of capital markets, various financial products and instruments._x000D_
+_x000D_
+* Overall Project oversight and client relationship management</t>
+  </si>
+  <si>
+    <t>Business Process Solution</t>
+  </si>
+  <si>
+    <t>Fund Financial Reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Preparation and review of financial statements, including Schedule of Investments and Notes to financials on a quarterly, semi-annual and_x000D_
+annual basis? in compliance with IFRS, US GAAP, Lux GAAP, HK GAAP - for Private Equities,  Hedge Funds and Mutual Funds under various structures Standalone, Master-feeder and Umbrella structures. _x000D_
+_x000D_
+* Technical support and advisory in tracking and_x000D_
+implementation of regulatory changes along with timely advice on the impacts of accounting changes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* CA / MBA / ACCA / CMA qualified candidates (with 0-3 years of experience)_x000D_
+* Hands on experience in preparation of financial statements for Private Equities and hedge funds along with notes to accounts along with a thorough round of self review. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* CA / MBA / ACCA / CMA qualified candidates (with 3-7 years of experience)_x000D_
+* Strong experience in preparation and review of financial statements for Private Equities, hedge funds, Mutual Funds_x000D_
+* Good understading of reporting requirements under US GAAP, IFRS, LUX GAAP_x000D_
+* Indepdently manages a set of fund groups through the preparation and audit cycle. _x000D_
+* Client and onshore coordination in turning around FS drafts along with audit assisstance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* CA / MBA / ACCA / CMA qualified candidates (with 7-12 years of experience)_x000D_
+* Extensive experience in preparation and review of financial statements for Private Equities, hedge funds, Mutual Funds and complex structures_x000D_
+* Strong understading of reporting requirements under US GAAP, IFRS, LUX GAAP_x000D_
+* Technical support and advisory in tracking and implementation of regulatory changes along with timely advice on the impacts of accounting changes.   </t>
+  </si>
+  <si>
+    <t>* CA / MBA / ACCA / CMA qualified candidates (with more than 12 years of experience)_x000D_
+* Extensive expertise in financial reporting with a strong and In depth knowledge and understanding of reporting landscape._x000D_
+* Overall Project oversight and client relationship management</t>
   </si>
 </sst>
 </file>
@@ -294,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -311,8 +358,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,37 +667,37 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="81.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="95.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="85.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="81.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="95.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="85.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.5546875" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" customWidth="1"/>
-    <col min="20" max="20" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" customWidth="1"/>
-    <col min="24" max="24" width="26.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" customWidth="1"/>
+    <col min="24" max="24" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -723,147 +771,143 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" spans="1:24" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="U3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -871,4 +915,89 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF949141-1426-4CBF-8D91-F11D128858E2}">
+  <dimension ref="A1:X1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/TestData/SkillMater.xlsx
+++ b/src/test/TestData/SkillMater.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush.Wadhwa\IdeaProjects\Automation\RMT\src\test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFDF70-654C-49D0-A7B7-095603FB0888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99686753-3BB4-4CD6-A93F-AE743DA47683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="13656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillMaster" sheetId="1" r:id="rId1"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
